--- a/public/ShippmentE.xlsx
+++ b/public/ShippmentE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odanu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF368D8-4431-4AC3-A52E-B8BA1168E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D81A0A-A7C4-46C4-AD15-80CB9E6E0F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{40202ED7-A155-47AD-8E45-ACE28C285E8D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -57,16 +57,79 @@
   </si>
   <si>
     <t>NEXALUME - ASTMA A - 798</t>
+  </si>
+  <si>
+    <t>No SO</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>att-1</t>
+  </si>
+  <si>
+    <t>SO-001</t>
+  </si>
+  <si>
+    <t>att-2</t>
+  </si>
+  <si>
+    <t>SEAMETAL/2024.203-304294</t>
+  </si>
+  <si>
+    <t>NEXALUME - ASTMA A - 799</t>
+  </si>
+  <si>
+    <t>att-3</t>
+  </si>
+  <si>
+    <t>SEAMETAL/2024.203-304295</t>
+  </si>
+  <si>
+    <t>NEXALUME - ASTMA A - 800</t>
+  </si>
+  <si>
+    <t>att-4</t>
+  </si>
+  <si>
+    <t>SEAMETAL/2024.203-304296</t>
+  </si>
+  <si>
+    <t>NEXALUME - ASTMA A - 801</t>
+  </si>
+  <si>
+    <t>att-5</t>
+  </si>
+  <si>
+    <t>SEAMETAL/2024.203-304297</t>
+  </si>
+  <si>
+    <t>NEXALUME - ASTMA A - 802</t>
+  </si>
+  <si>
+    <t>att-6</t>
+  </si>
+  <si>
+    <t>SEAMETAL/2024.203-304298</t>
+  </si>
+  <si>
+    <t>NEXALUME - ASTMA A - 803</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,49 +491,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6FB7D0-5811-4D27-A457-D154DCE8A6F1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>8.2650000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>9.2650000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>10.265000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>11.265000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>12.265000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>13.265000000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>